--- a/data/seongnyang_daum.xlsx
+++ b/data/seongnyang_daum.xlsx
@@ -731,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,13 +770,16 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -784,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -792,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -800,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -808,33 +811,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -842,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -850,20 +859,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -871,53 +883,71 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -925,7 +955,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -933,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -941,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -949,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -957,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -965,20 +995,23 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -986,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -994,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1002,35 +1035,47 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1038,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1046,20 +1091,23 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1067,7 +1115,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1075,7 +1123,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1083,7 +1131,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1091,7 +1139,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1099,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1107,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1115,7 +1163,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1123,7 +1171,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1131,7 +1179,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1139,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1147,7 +1195,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1155,56 +1203,71 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1212,7 +1275,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1220,7 +1283,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1228,7 +1291,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1236,7 +1299,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1244,7 +1307,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1252,7 +1315,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1260,7 +1323,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1268,61 +1331,79 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1330,48 +1411,63 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1379,7 +1475,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1387,7 +1483,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1395,7 +1491,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1403,7 +1499,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1411,7 +1507,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1419,7 +1515,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1427,7 +1523,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1435,7 +1531,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1443,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1451,7 +1547,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1459,7 +1555,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1467,7 +1563,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1475,7 +1571,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1483,7 +1579,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1491,7 +1587,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1499,7 +1595,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1507,7 +1603,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1515,7 +1611,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1523,7 +1619,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1531,7 +1627,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1539,7 +1635,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1547,7 +1643,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1555,7 +1651,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1563,7 +1659,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1571,7 +1667,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1579,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1587,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1595,7 +1691,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1603,7 +1699,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1611,262 +1707,6 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
         <v>119</v>
       </c>
     </row>
